--- a/classfiers/greedy/elm/smote/chatty_elm_tanh_smote_results.xlsx
+++ b/classfiers/greedy/elm/smote/chatty_elm_tanh_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.515625</v>
+        <v>0.5098522167487685</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6804123711340206</v>
+        <v>0.6753670473083198</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5921052631578947</v>
+        <v>0.5689567075436641</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4900662251655629</v>
+        <v>0.4975728155339806</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6577777777777778</v>
+        <v>0.6645056726094003</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5738396624472574</v>
+        <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7009345794392523</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9533898305084746</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8078994614003592</v>
+        <v>0.6984126984126985</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8570722809151022</v>
+        <v>0.5716380393799749</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5234899328859061</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.2512562814070352</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6872246696035244</v>
+        <v>0.386100386100386</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7022222222222222</v>
+        <v>0.7109854829704075</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5258215962441315</v>
+        <v>0.5865102639296188</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.8771929824561403</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6892307692307693</v>
+        <v>0.70298769771529</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7434371184371185</v>
+        <v>0.6964487832484436</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5511874667469706</v>
+        <v>0.592770799079872</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9906779661016948</v>
+        <v>0.8256898527726351</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7045090098292903</v>
+        <v>0.6254747004292189</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6937353094359191</v>
+        <v>0.6167486597713552</v>
       </c>
     </row>
   </sheetData>
